--- a/军规炼金.xlsx
+++ b/军规炼金.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\CS饰品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3D16A2-5B66-4DC8-AD35-0FF2166C55DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991F6C6-1A92-4C0B-BD1B-10D2FC9640ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="1920" windowWidth="21600" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>军规炼金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,38 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂网大行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑砂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战隼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻青脸肿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右开花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风卷残云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,30 +587,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -592,7 +624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -609,7 +641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -626,7 +658,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>42</v>
       </c>
@@ -643,7 +675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -666,7 +698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -680,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -700,7 +732,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -717,7 +749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -734,12 +766,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -750,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -761,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -772,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -783,7 +815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -794,7 +826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -805,7 +837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -816,7 +848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -827,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -838,7 +870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -849,7 +881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -860,7 +892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -871,7 +903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -882,7 +914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -893,7 +925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -904,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -915,7 +947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -926,7 +958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -937,7 +969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -948,7 +980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -957,6 +989,46 @@
       </c>
       <c r="C38" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
